--- a/pred_ohlcv/54_21/2019-10-26 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ICX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1927811.0093</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1928171.5422</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1928332.0765</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1929543.5913</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1929542.5913</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1929543.5913</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1929531.5913</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1929530.5913</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1931502.2448</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1928692.8857</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1926872.8857</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1926872.8857</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1927383.059</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1927013.736</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1927013.736</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1927085.329399999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1938728.2316</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1939483.517299999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1943799.471568131</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1954996.801768131</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1960983.044468131</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1931032.549574481</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1931155.549574481</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1930842.464874481</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1931131.575574481</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1935987.491713927</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1935981.944213927</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ICX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1927811.0093</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1928171.5422</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1928332.0765</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1929543.5913</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1929542.5913</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1929543.5913</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1929531.5913</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1929530.5913</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1931502.2448</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1928692.8857</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1926872.8857</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1926872.8857</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1927383.059</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1927013.736</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1927013.736</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1927085.329399999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1938728.2316</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1941801.041899999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1939483.517299999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1943799.471568131</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1943895.049068131</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1954996.801768131</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1960983.044468131</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1960471.234668131</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1960748.234668131</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1960741.999668131</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1962945.681068131</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1963019.548168131</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1963019.548168131</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1963025.004468131</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1931032.549574481</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1931032.549574481</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1931155.549574481</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1930842.464874481</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1931131.575574481</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1936592.453474481</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1934249.030767674</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1934303.675567674</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1931069.792813927</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1935987.491713927</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1935980.944213927</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1935980.944213927</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1935981.944213927</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1936224.780413927</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1903602.565160796</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1901051.450708669</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1901067.450708669</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1901067.450708669</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1902645.388208669</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
